--- a/Data_processed/industry/paper & packaging.xlsx
+++ b/Data_processed/industry/paper & packaging.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/paper & packaging.xlsx
+++ b/Data_processed/industry/paper & packaging.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/paper & packaging.xlsx
+++ b/Data_processed/industry/paper & packaging.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.07540963727758</v>
+        <v>0.6090901733333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6090901733333334</v>
+        <v>8.7311964</v>
       </c>
       <c r="F2" t="n">
-        <v>8.7311964</v>
+        <v>1.698305e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0949487544543</v>
+        <v>0.3927333866666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3927333866666667</v>
+        <v>6.1718623</v>
       </c>
       <c r="F3" t="n">
-        <v>6.1718623</v>
+        <v>1.0950449e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.006646745206717</v>
+        <v>0.027492712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.027492712</v>
+        <v>0.43205196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.43205196</v>
+        <v>7.6656975e-07</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.09494875444430001</v>
+        <v>0.3927333866666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3927333866666667</v>
+        <v>6.1718623</v>
       </c>
       <c r="F5" t="n">
-        <v>6.1718623</v>
+        <v>1.0950449e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05386402592884999</v>
+        <v>0.4350644066666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4350644066666667</v>
+        <v>6.2365689</v>
       </c>
       <c r="F6" t="n">
-        <v>6.2365689</v>
+        <v>1.213075e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.09505855173409999</v>
+        <v>0.40242154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.40242154</v>
+        <v>6.433261</v>
       </c>
       <c r="F7" t="n">
-        <v>6.433261</v>
+        <v>1.122058e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.007604684169150001</v>
+        <v>0.03219372333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03219372333333334</v>
+        <v>0.51466088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.51466088</v>
+        <v>8.9764642e-07</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.09505855173409999</v>
+        <v>0.40242154</v>
       </c>
       <c r="E9" t="n">
-        <v>0.40242154</v>
+        <v>6.433261</v>
       </c>
       <c r="F9" t="n">
-        <v>6.433261</v>
+        <v>1.122058e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1130453238573</v>
+        <v>0.4776557533333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4776557533333334</v>
+        <v>8.268303299999999</v>
       </c>
       <c r="F10" t="n">
-        <v>8.268303299999999</v>
+        <v>1.331831e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1130453238473</v>
+        <v>0.4776557533333334</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4776557533333334</v>
+        <v>8.268303299999999</v>
       </c>
       <c r="F11" t="n">
-        <v>8.268303299999999</v>
+        <v>1.331831e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.112677290438</v>
+        <v>0.4952027333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4952027333333334</v>
+        <v>8.155538699999999</v>
       </c>
       <c r="F12" t="n">
-        <v>8.155538699999999</v>
+        <v>1.3807566e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.137147261335</v>
+        <v>0.6278351533333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6278351533333334</v>
+        <v>11.852454</v>
       </c>
       <c r="F13" t="n">
-        <v>11.852454</v>
+        <v>1.750571e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.112568592101</v>
+        <v>0.4856114666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4856114666666667</v>
+        <v>7.896754</v>
       </c>
       <c r="F14" t="n">
-        <v>7.896754</v>
+        <v>1.3540136e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0929102204115</v>
+        <v>0.3559258933333334</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3559258933333334</v>
+        <v>7.8827229</v>
       </c>
       <c r="F15" t="n">
-        <v>7.8827229</v>
+        <v>9.9241584e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0556559760485</v>
+        <v>0.09547371333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09547371333333333</v>
+        <v>4.2027104</v>
       </c>
       <c r="F16" t="n">
-        <v>4.2027104</v>
+        <v>2.6620604e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.058209781002</v>
+        <v>0.09567875333333334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09567875333333334</v>
+        <v>4.2088212</v>
       </c>
       <c r="F17" t="n">
-        <v>4.2088212</v>
+        <v>2.6677775e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.08889602348157061</v>
+        <v>0.2165983733333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2165983733333333</v>
+        <v>6.8566748</v>
       </c>
       <c r="F18" t="n">
-        <v>6.8566748</v>
+        <v>6.0393373e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.07723779202966151</v>
+        <v>0.1490731666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1490731666666667</v>
+        <v>5.6571804</v>
       </c>
       <c r="F19" t="n">
-        <v>5.6571804</v>
+        <v>4.1565555e-06</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.072672307102</v>
+        <v>0.1655981266666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1655981266666667</v>
+        <v>5.3276359</v>
       </c>
       <c r="F20" t="n">
-        <v>5.3276359</v>
+        <v>4.6173152e-06</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.07583408252726856</v>
+        <v>0.13515254</v>
       </c>
       <c r="E21" t="n">
-        <v>0.13515254</v>
+        <v>5.5003998</v>
       </c>
       <c r="F21" t="n">
-        <v>5.5003998</v>
+        <v>3.7684115e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.076132637423</v>
+        <v>0.1348409733333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1348409733333333</v>
+        <v>5.5655969</v>
       </c>
       <c r="F22" t="n">
-        <v>5.5655969</v>
+        <v>3.7597242e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.04134658961971</v>
+        <v>0.2439658066666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2439658066666667</v>
+        <v>5.0179742</v>
       </c>
       <c r="F23" t="n">
-        <v>5.0179742</v>
+        <v>6.802414e-06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.056194214274</v>
+        <v>0.08371876666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08371876666666667</v>
+        <v>3.9150982</v>
       </c>
       <c r="F24" t="n">
-        <v>3.9150982</v>
+        <v>2.3343013e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.15344320684</v>
+        <v>0.20001732</v>
       </c>
       <c r="E25" t="n">
-        <v>0.20001732</v>
+        <v>5.6472019</v>
       </c>
       <c r="F25" t="n">
-        <v>5.6472019</v>
+        <v>5.5770136e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.06664914338672374</v>
+        <v>0.1244235733333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1244235733333333</v>
+        <v>4.8492472</v>
       </c>
       <c r="F26" t="n">
-        <v>4.8492472</v>
+        <v>3.4692594e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0705092025587</v>
+        <v>0.1721981</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1721981</v>
+        <v>4.7940196</v>
       </c>
       <c r="F27" t="n">
-        <v>4.7940196</v>
+        <v>4.8013399e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.00823727099</v>
+        <v>0.02200797933333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02200797933333333</v>
+        <v>0.49882554</v>
       </c>
       <c r="F28" t="n">
-        <v>0.49882554</v>
+        <v>6.1364085e-07</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1703059406432</v>
+        <v>0.9465277333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9465277333333333</v>
+        <v>15.322566</v>
       </c>
       <c r="F29" t="n">
-        <v>15.322566</v>
+        <v>2.6391704e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.05833201546854</v>
+        <v>0.2952197933333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2952197933333333</v>
+        <v>5.3256997</v>
       </c>
       <c r="F30" t="n">
-        <v>5.3256997</v>
+        <v>8.231511100000001e-06</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.09661897602110001</v>
+        <v>0.4902247666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4902247666666667</v>
+        <v>8.8459483</v>
       </c>
       <c r="F31" t="n">
-        <v>8.8459483</v>
+        <v>1.3668767e-05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.02446996898863</v>
+        <v>0.1326324133333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1326324133333333</v>
+        <v>3.6969153</v>
       </c>
       <c r="F32" t="n">
-        <v>3.6969153</v>
+        <v>3.6981437e-06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.004246803559500001</v>
+        <v>0.01223404533333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01223404533333333</v>
+        <v>0.28401835</v>
       </c>
       <c r="F33" t="n">
-        <v>0.28401835</v>
+        <v>3.4111764e-07</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.00823727099</v>
+        <v>0.02200797933333333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02200797933333333</v>
+        <v>0.49882554</v>
       </c>
       <c r="F34" t="n">
-        <v>0.49882554</v>
+        <v>6.1364085e-07</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0014230222679</v>
+        <v>0.007259669333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.007259669333333333</v>
+        <v>0.1310752</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1310752</v>
+        <v>2.0241885e-07</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0018499289224</v>
+        <v>0.009437569999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009437569999999999</v>
+        <v>0.17039776</v>
       </c>
       <c r="F36" t="n">
-        <v>0.17039776</v>
+        <v>2.631445e-07</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.0030104090895</v>
+        <v>0.007948737333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.007948737333333334</v>
+        <v>0.20521385</v>
       </c>
       <c r="F37" t="n">
-        <v>0.20521385</v>
+        <v>2.2163188e-07</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1588,5 +1633,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>